--- a/input/forces.xlsx
+++ b/input/forces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\source\repos\KCl\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F3630-32D1-4A4C-8B42-5E9D0EF378AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF1399F-28D9-4308-ACBA-11CD20F15A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" activeTab="1" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>sig (nm)</t>
   </si>
@@ -57,33 +57,15 @@
     <t>Density/[kg/m^3]</t>
   </si>
   <si>
-    <t>molality/[mol/kg]</t>
-  </si>
-  <si>
     <t>T= 298.15</t>
   </si>
   <si>
-    <t>Lammps</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>T= 323.15</t>
-  </si>
-  <si>
     <t>kcal-&gt;kJ</t>
   </si>
   <si>
     <t>A-&gt;nm</t>
   </si>
   <si>
-    <t>inf_dil</t>
-  </si>
-  <si>
     <t>Ow-K</t>
   </si>
   <si>
@@ -97,6 +79,45 @@
   </si>
   <si>
     <t>Cl-Cl</t>
+  </si>
+  <si>
+    <t>pressure to low/slightly off</t>
+  </si>
+  <si>
+    <t>molality=4</t>
+  </si>
+  <si>
+    <t>1152.963±0.12</t>
+  </si>
+  <si>
+    <t>Viscosity/[cP]</t>
+  </si>
+  <si>
+    <t>1152.906±0.2</t>
+  </si>
+  <si>
+    <t>0.105±0.003</t>
+  </si>
+  <si>
+    <t>0.095±0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D_s wat </t>
+  </si>
+  <si>
+    <t>(2.02±0.012)E-9</t>
+  </si>
+  <si>
+    <t>(2.10±0.019)E-9</t>
+  </si>
+  <si>
+    <t>MADRID_T</t>
+  </si>
+  <si>
+    <t>RESULT dt=1 30Msteps</t>
+  </si>
+  <si>
+    <t>RESULT dt=2 30Msteps</t>
   </si>
 </sst>
 </file>
@@ -144,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -152,6 +173,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,36 +492,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33013097-3A06-447B-96E6-C6C751BD98FB}">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="17.5703125" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" customWidth="1"/>
+    <col min="6" max="7" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>4.1840000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -511,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -530,9 +554,9 @@
         <v>3.1589</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1.4004300000000001</v>
@@ -549,9 +573,9 @@
         <v>2.8954</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>6.1983000000000003E-2</v>
@@ -568,9 +592,9 @@
         <v>4.0763100000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>1.9857400000000001</v>
@@ -587,9 +611,9 @@
         <v>2.3014000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>1.4</v>
@@ -606,9 +630,9 @@
         <v>3.4169999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>7.6923000000000005E-2</v>
@@ -625,31 +649,31 @@
         <v>4.6990599999999993</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
@@ -660,99 +684,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855CDA98-50B5-463D-99EB-A9AEFFC97778}">
-  <dimension ref="A2:M6"/>
+  <dimension ref="A2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1152</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/forces.xlsx
+++ b/input/forces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelle\source\repos\KCl\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF1399F-28D9-4308-ACBA-11CD20F15A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46EAD0-A613-4163-9B36-45F979123362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" activeTab="1" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" xr2:uid="{874B0134-1390-4BF3-83C4-416E653BC7FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,11 +492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33013097-3A06-447B-96E6-C6C751BD98FB}">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855CDA98-50B5-463D-99EB-A9AEFFC97778}">
   <dimension ref="A2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
@@ -785,6 +785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="5" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="497d483694d8ce173e73306ed21102b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70f6bd0b-068c-4d82-a58f-a0ed716713b3" xmlns:ns4="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eee7468f92a1a094a484d92214eafc0" ns3:_="" ns4:_="">
     <xsd:import namespace="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
@@ -955,22 +970,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED14D200-017A-42DC-AFAC-3E80C18FB2E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -987,29 +1012,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C28FD1-FDAB-4FA6-AACF-841A9330F756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="70f6bd0b-068c-4d82-a58f-a0ed716713b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34AC1221-5A6C-4F6B-98AA-6C97E1E179EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>